--- a/data/trans_camb/P19-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P19-Clase-trans_camb.xlsx
@@ -655,7 +655,7 @@
         <v>1.127538987237331</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>4.193901069608774</v>
+        <v>4.193901069608769</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>0.9667496908363493</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-3.560430447813295</v>
+        <v>-2.51719252861108</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-3.308953611724117</v>
+        <v>-3.519161780364242</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.6107276583788187</v>
+        <v>-0.5510754866144214</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-10.45345120660381</v>
+        <v>-10.63992075120791</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-6.520645489415021</v>
+        <v>-7.027311721315745</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-2.511929979178854</v>
+        <v>-3.053399812056189</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-4.731959081486491</v>
+        <v>-3.458011924692884</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-2.587545028012521</v>
+        <v>-2.547273065322576</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>1.219361716031894</v>
+        <v>0.9726889926177337</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>10.08919928181503</v>
+        <v>10.44061209202725</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>9.669653219517095</v>
+        <v>9.290581014046559</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>11.68392914871884</v>
+        <v>11.40458660442906</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>5.35345218681622</v>
+        <v>5.622604074718689</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>8.786474844994736</v>
+        <v>8.54468507042492</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>11.52393589921361</v>
+        <v>10.7146654966175</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>5.640929672179324</v>
+        <v>6.268961435354912</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>7.556573860282427</v>
+        <v>7.678472771198668</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>10.40131585107838</v>
+        <v>9.764957288341916</v>
       </c>
     </row>
     <row r="7">
@@ -760,7 +760,7 @@
         <v>0.02764268369013411</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1028174475624662</v>
+        <v>0.102817447562466</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>0.02725606368225268</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.1013587979754093</v>
+        <v>-0.07631282161966764</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.09608102448635965</v>
+        <v>-0.1032858917258695</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.01412604795133468</v>
+        <v>-0.01708271419852284</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.241623669099843</v>
+        <v>-0.2405694358418768</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.1448122239111955</v>
+        <v>-0.158666078823</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.050385120056256</v>
+        <v>-0.06432743565413501</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.1259694028153368</v>
+        <v>-0.09370941198774752</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.06932291659737434</v>
+        <v>-0.06766747266713462</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.03271274187518722</v>
+        <v>0.02647314196566145</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.3454550802708307</v>
+        <v>0.360815953452429</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.3294035848776924</v>
+        <v>0.3139538447415144</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.4132365460944022</v>
+        <v>0.3898261676130967</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.1464138374934082</v>
+        <v>0.1472584990212189</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.2314459213424161</v>
+        <v>0.2295285681564227</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3278248670551667</v>
+        <v>0.2956656181824073</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.169086565139907</v>
+        <v>0.1900085177788129</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.2333807605380573</v>
+        <v>0.2241567544645507</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.3193490250757492</v>
+        <v>0.2983043159531633</v>
       </c>
     </row>
     <row r="10">
@@ -869,7 +869,7 @@
         <v>2.075612587319525</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>2.166905913884193</v>
+        <v>2.166905913884204</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>0.8527112489597921</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-5.201279236057483</v>
+        <v>-5.463166435270401</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-6.042407863690567</v>
+        <v>-6.328355808178086</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-7.6050987648243</v>
+        <v>-8.246171850766668</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-6.400160277935172</v>
+        <v>-7.055645019624897</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-5.151272613207956</v>
+        <v>-5.143567870176843</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-3.392677054750687</v>
+        <v>-4.532538867529149</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-4.453029193451066</v>
+        <v>-4.360917391183529</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-2.959562805166103</v>
+        <v>-3.38268421947592</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-4.890218352822254</v>
+        <v>-5.093082911440767</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>8.653982974618255</v>
+        <v>8.804718184441784</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>8.690992778372623</v>
+        <v>7.38833968105414</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>5.020251062149274</v>
+        <v>4.59191480172418</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>7.98380450654924</v>
+        <v>8.443245535694228</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>9.160977570334699</v>
+        <v>9.242902621549648</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>10.15345429245637</v>
+        <v>8.950762262098296</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>6.299734111989987</v>
+        <v>5.997936558249449</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>7.133373388665223</v>
+        <v>6.471573660381007</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>4.409556883017197</v>
+        <v>4.597926854233302</v>
       </c>
     </row>
     <row r="13">
@@ -974,7 +974,7 @@
         <v>0.05181657077447002</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05409566040134685</v>
+        <v>0.05409566040134713</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.02393736825125163</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.1497392725851163</v>
+        <v>-0.1614287995661889</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.1738788172375191</v>
+        <v>-0.185924549898923</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.2233532847223841</v>
+        <v>-0.2283721979245297</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.1451285087138423</v>
+        <v>-0.1620708042309883</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.1209631666387713</v>
+        <v>-0.118848369200614</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.07968483508351826</v>
+        <v>-0.1071778990977749</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.1155899502298485</v>
+        <v>-0.1158983861708991</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.07979568531032168</v>
+        <v>-0.0897243608924484</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.1268811349769473</v>
+        <v>-0.1335523523191084</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.3147762511690907</v>
+        <v>0.3164944742804137</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.3135941151178995</v>
+        <v>0.2630108494071023</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.1843473747246081</v>
+        <v>0.1644622092259857</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.2256700833445074</v>
+        <v>0.2248853840188605</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.2593200299678662</v>
+        <v>0.2651328863444089</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2900543037909531</v>
+        <v>0.2465878185384389</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1967860093135004</v>
+        <v>0.1767638349131356</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.214205236624534</v>
+        <v>0.1986331537664868</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.1324808035424746</v>
+        <v>0.1395140544044331</v>
       </c>
     </row>
     <row r="16">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-7.953037503594315</v>
+        <v>-7.965062724202308</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-3.301907712055477</v>
+        <v>-3.319306899870226</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1486679232285345</v>
+        <v>0.2719619880947179</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-3.798470193521954</v>
+        <v>-3.802553815442537</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-6.672520071055045</v>
+        <v>-7.177907424999636</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-9.410009430613309</v>
+        <v>-8.613375125313926</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-4.258896980354151</v>
+        <v>-4.517383243077113</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-2.430509335219597</v>
+        <v>-2.072323530962815</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-0.3448288716418587</v>
+        <v>0.2894993869251026</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.823492886096938</v>
+        <v>2.121252983363746</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>7.798865500045133</v>
+        <v>7.476324009779998</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>11.10413704764462</v>
+        <v>11.83220148295587</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>14.92198438890366</v>
+        <v>15.18276275654612</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>13.79671253209292</v>
+        <v>13.70252537725974</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>8.675470841266257</v>
+        <v>9.477678515282054</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>4.354744472568782</v>
+        <v>4.337843657596503</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>7.330204697814422</v>
+        <v>7.860835794523929</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>9.829052236986493</v>
+        <v>9.857375660430634</v>
       </c>
     </row>
     <row r="19">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.2892887586174281</v>
+        <v>-0.2977446349564925</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.1183147244956503</v>
+        <v>-0.116124373523451</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.007045992198541312</v>
+        <v>0.01154379047438032</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.1076631556695034</v>
+        <v>-0.1053139287905192</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.1903528488918975</v>
+        <v>-0.193089609821028</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.2529970226342129</v>
+        <v>-0.2357991856795945</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.1525132057166574</v>
+        <v>-0.159086242446885</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.08454056371824807</v>
+        <v>-0.07490419545477753</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.01314200540934002</v>
+        <v>0.01030589731285275</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.08638998177465057</v>
+        <v>0.100415125919766</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.3537938232337704</v>
+        <v>0.3372994295701323</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.5097027467620467</v>
+        <v>0.5387000445078137</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.6001533185795729</v>
+        <v>0.6420642618141952</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.546440981809494</v>
+        <v>0.5367034964699597</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.3301756375823759</v>
+        <v>0.3648856192228195</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1846010340237995</v>
+        <v>0.1828537666654543</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.3073726422222504</v>
+        <v>0.3323512996980994</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.4181684779385099</v>
+        <v>0.420678227335001</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>3.719850004925784</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>-0.6118039274047193</v>
+        <v>-0.6118039274047166</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>-4.450191402460712</v>
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-7.06767874320022</v>
+        <v>-6.550128057137385</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.5595272581092742</v>
+        <v>0.4684913849481409</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-4.584812117464089</v>
+        <v>-4.00757801321695</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-9.475094281108584</v>
+        <v>-9.139175694400377</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-1.421342230966637</v>
+        <v>-2.000028373130811</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-2.402482816228528</v>
+        <v>-1.94560597058477</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-6.526297089530537</v>
+        <v>-6.710586852519958</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>1.169497017480291</v>
+        <v>0.8349741610497537</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-1.603205193252172</v>
+        <v>-1.688157064959313</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.01094978306072849</v>
+        <v>-0.500971453534701</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>7.67777020336083</v>
+        <v>7.376423904715853</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2.858674249165878</v>
+        <v>3.076780701799852</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.1082324783584899</v>
+        <v>0.5170072230391031</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>7.776864699892958</v>
+        <v>8.259316503262969</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>6.916003663860685</v>
+        <v>7.032032791344436</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>-1.113576908916877</v>
+        <v>-1.037039843323885</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>6.881441690691344</v>
+        <v>6.981156560518078</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>4.095829154580655</v>
+        <v>4.022054949251746</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>0.165427858321931</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>-0.02720792862332849</v>
+        <v>-0.02720792862332837</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>-0.1381963166609635</v>
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.2902466514510622</v>
+        <v>-0.2735607398005936</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.02163663242614361</v>
+        <v>0.01767638403998713</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.1924031956091555</v>
+        <v>-0.1753701470458337</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.2705723416984547</v>
+        <v>-0.2657134144013671</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.04197151052349277</v>
+        <v>-0.06354188746869667</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.07069410748054016</v>
+        <v>-0.05664539476719927</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.2366393908466533</v>
+        <v>-0.2448556424017024</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.04288655018054532</v>
+        <v>0.02837042766874789</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.05915750573134033</v>
+        <v>-0.0611470764103737</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>-0.002113334142963993</v>
+        <v>-0.02644600338557094</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.3628532541380522</v>
+        <v>0.3514212233618244</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.134277746294461</v>
+        <v>0.1439079051149748</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.003784757431564173</v>
+        <v>0.01781722556037213</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.265003813606183</v>
+        <v>0.2785286998163392</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.2440514483341188</v>
+        <v>0.2430118649391997</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>-0.04100607562554284</v>
+        <v>-0.04389300786329113</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.274252907460625</v>
+        <v>0.2777514101544922</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.1658707711825603</v>
+        <v>0.1653158869837321</v>
       </c>
     </row>
     <row r="28">
@@ -1520,7 +1520,7 @@
         <v>1.82910560999886</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>-5.606576673406191</v>
+        <v>-5.606576673406188</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-3.228343700509299</v>
+        <v>-3.323798359644631</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.02703528462554264</v>
+        <v>0.5276552512245123</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-7.167727435874371</v>
+        <v>-7.276821802914313</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-6.83745002459545</v>
+        <v>-6.436292080807703</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-5.228093421324078</v>
+        <v>-4.675655725069103</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-12.51681596981233</v>
+        <v>-12.16714507831566</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-4.089515344587634</v>
+        <v>-4.242003467024118</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-2.06968346283542</v>
+        <v>-2.071529423025478</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-9.153715042140748</v>
+        <v>-9.234417435715365</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>7.505173387925226</v>
+        <v>7.566208212552248</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>10.45408192560297</v>
+        <v>10.7181292616872</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>3.683909020594395</v>
+        <v>2.989055965857691</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>3.612921998002964</v>
+        <v>3.423634956564952</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>5.170224286385508</v>
+        <v>5.441852961722483</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>-3.226476587332748</v>
+        <v>-2.960090000272014</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>3.45842102211659</v>
+        <v>3.278711554124611</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>5.534700393070699</v>
+        <v>5.563566091569103</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>-2.102200074595878</v>
+        <v>-1.871798090273035</v>
       </c>
     </row>
     <row r="31">
@@ -1625,7 +1625,7 @@
         <v>0.07066234271114834</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>-0.2165942962324658</v>
+        <v>-0.2165942962324657</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.1521962568075103</v>
+        <v>-0.1538107622213561</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.001693994047397136</v>
+        <v>0.02096879052034388</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.3333526338097478</v>
+        <v>-0.3466333246304268</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.2053483074735758</v>
+        <v>-0.1957544952952434</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.1576378578813305</v>
+        <v>-0.1431244305866025</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.3701434168007162</v>
+        <v>-0.354332262015461</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.1497460282471982</v>
+        <v>-0.1500499814447781</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.07213367550186012</v>
+        <v>-0.07268465159848479</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.3288126025847809</v>
+        <v>-0.3284805311576275</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.4827004482262049</v>
+        <v>0.4852537703673158</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.6922572867578991</v>
+        <v>0.6907160256640865</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.2405909823695649</v>
+        <v>0.1978502319870051</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.1326306310811811</v>
+        <v>0.1253941612816851</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.1859057389352824</v>
+        <v>0.1994182584180351</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>-0.1203447582393823</v>
+        <v>-0.1071196572462506</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.1445184123397026</v>
+        <v>0.1372952585498209</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.2350711163931177</v>
+        <v>0.2312814207057335</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>-0.09181888700763462</v>
+        <v>-0.08307547797174612</v>
       </c>
     </row>
     <row r="34">
@@ -1716,7 +1716,7 @@
         <v>17.85350277625011</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>6.859255554654636</v>
+        <v>6.859255554654648</v>
       </c>
       <c r="F34" s="5" t="n">
         <v>0.1942761250757818</v>
@@ -1734,7 +1734,7 @@
         <v>7.690470808646982</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>-1.591688724171941</v>
+        <v>-1.591688724171944</v>
       </c>
     </row>
     <row r="35">
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>2.292252375907701</v>
+        <v>2.165974699560107</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>10.92270968465833</v>
+        <v>9.658112215651997</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-3.492144149728251</v>
+        <v>-3.181515153549801</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-3.525141034379351</v>
+        <v>-3.785510832239667</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>1.574752721392047</v>
+        <v>1.260424780414433</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-7.435451414998486</v>
+        <v>-7.446103798097059</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-1.262771932400065</v>
+        <v>-1.449225218443073</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>4.007301681203515</v>
+        <v>4.096425004923216</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-5.300984295671682</v>
+        <v>-5.327538137914309</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>17.68312344097311</v>
+        <v>17.08372971971659</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>25.09404163350051</v>
+        <v>24.97117626198392</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>17.85596703056796</v>
+        <v>17.9367020889195</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>4.119209273399369</v>
+        <v>3.703014846861391</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>8.990229348361577</v>
+        <v>9.058151877477419</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>0.2894552784356801</v>
+        <v>0.1638840160897627</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>5.247734751510983</v>
+        <v>5.311623016203388</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>11.00457737188803</v>
+        <v>10.78113853120196</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>1.899225948549554</v>
+        <v>2.297081181113163</v>
       </c>
     </row>
     <row r="37">
@@ -1821,7 +1821,7 @@
         <v>0.7499066054370831</v>
       </c>
       <c r="E37" s="6" t="n">
-        <v>0.2881115887051101</v>
+        <v>0.2881115887051106</v>
       </c>
       <c r="F37" s="6" t="n">
         <v>0.007331573177217258</v>
@@ -1839,7 +1839,7 @@
         <v>0.2960203804451509</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>-0.06126702947105137</v>
+        <v>-0.06126702947105148</v>
       </c>
     </row>
     <row r="38">
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>0.07841106921369935</v>
+        <v>0.07945372695130332</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>0.4073935412113502</v>
+        <v>0.3563250902619776</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.1365286389328013</v>
+        <v>-0.1311871005114426</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.1254385665565476</v>
+        <v>-0.1292676075308687</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>0.06043636696592425</v>
+        <v>0.04318794019800593</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.2686682237738485</v>
+        <v>-0.2676175544224143</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.04857619488081404</v>
+        <v>-0.0533197854153129</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>0.1472844629012793</v>
+        <v>0.1479285083689925</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.1945821254315058</v>
+        <v>-0.191292869499933</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.854662650682198</v>
+        <v>0.8176409593430872</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>1.23959678059692</v>
+        <v>1.23732559529803</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>0.8572354883806425</v>
+        <v>0.862077135841567</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.1684969406498949</v>
+        <v>0.1505903505445609</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.3671440127258125</v>
+        <v>0.3567889615928453</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.01018970991204319</v>
+        <v>0.008683179560279421</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.2113090823576775</v>
+        <v>0.2170061845222349</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.4441471218871689</v>
+        <v>0.444791722898035</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>0.0813344877509195</v>
+        <v>0.09154536086304377</v>
       </c>
     </row>
     <row r="40">
@@ -1930,7 +1930,7 @@
         <v>4.117141978896488</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>1.50104275009198</v>
+        <v>1.501042750091985</v>
       </c>
       <c r="F40" s="5" t="n">
         <v>-0.9597132080570503</v>
@@ -1939,7 +1939,7 @@
         <v>3.190728285163807</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>-0.1129554458361992</v>
+        <v>-0.1129554458361937</v>
       </c>
       <c r="I40" s="5" t="n">
         <v>-0.6043681088326425</v>
@@ -1948,7 +1948,7 @@
         <v>3.659914569506395</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>0.7046092548675387</v>
+        <v>0.7046092548675331</v>
       </c>
     </row>
     <row r="41">
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-2.38479000346456</v>
+        <v>-2.482716663182101</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>2.054461175106722</v>
+        <v>1.918561753929988</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-0.619309600354896</v>
+        <v>-0.8535741710454585</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-3.146169511109817</v>
+        <v>-3.421493942104904</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>1.07967037136184</v>
+        <v>0.9769286137412162</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-2.249722846717527</v>
+        <v>-2.27729962937205</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-2.233606629342733</v>
+        <v>-2.303729319599573</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>1.994388268303372</v>
+        <v>1.987995617664093</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>-0.8195077977571846</v>
+        <v>-0.7957994914487716</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>1.770315005875251</v>
+        <v>1.757185464739025</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>6.250713412590156</v>
+        <v>6.12100936666652</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>3.771452141092509</v>
+        <v>3.54844886113038</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>1.438659770448611</v>
+        <v>1.45067499631317</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>5.640804607125238</v>
+        <v>5.481387275111827</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>2.053877394046925</v>
+        <v>2.01802406158269</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>0.8566171332147392</v>
+        <v>0.9337906120049604</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>5.288793464111913</v>
+        <v>5.215775023972252</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>2.359864019455927</v>
+        <v>2.272161906692904</v>
       </c>
     </row>
     <row r="43">
@@ -2035,7 +2035,7 @@
         <v>0.1655833186524518</v>
       </c>
       <c r="E43" s="6" t="n">
-        <v>0.06036897470950241</v>
+        <v>0.06036897470950264</v>
       </c>
       <c r="F43" s="6" t="n">
         <v>-0.0306058064468646</v>
@@ -2044,7 +2044,7 @@
         <v>0.1017541610352148</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>-0.003602214164980528</v>
+        <v>-0.003602214164980351</v>
       </c>
       <c r="I43" s="6" t="n">
         <v>-0.0214592209387805</v>
@@ -2053,7 +2053,7 @@
         <v>0.1299521172879224</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>0.02501847045655256</v>
+        <v>0.02501847045655236</v>
       </c>
     </row>
     <row r="44">
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.09151907016576324</v>
+        <v>-0.09179038405595363</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>0.07678091452309474</v>
+        <v>0.07286444312449995</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.02364611079540434</v>
+        <v>-0.03360176217817015</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.09719232024198082</v>
+        <v>-0.1036553206828589</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>0.03319384703684848</v>
+        <v>0.02967719205439604</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.06935905340672301</v>
+        <v>-0.06943035039308178</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.07685840352047314</v>
+        <v>-0.07959488745585841</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>0.06966956072019832</v>
+        <v>0.06813557034288212</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>-0.02838150426201145</v>
+        <v>-0.02790638882988332</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.0753531151499456</v>
+        <v>0.07467417186534862</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.2599343927376974</v>
+        <v>0.2540130699571957</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.1580847330688086</v>
+        <v>0.14842395171472</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.0471003560107874</v>
+        <v>0.04819534114559458</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.1881015594570647</v>
+        <v>0.1851781925669903</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.06876807350543274</v>
+        <v>0.06686383098077177</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.03143190262966813</v>
+        <v>0.03431432610319518</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.1928177441645016</v>
+        <v>0.1901854218050367</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>0.0871362022764844</v>
+        <v>0.0830294545563301</v>
       </c>
     </row>
     <row r="46">
